--- a/biology/Zoologie/Brookesia_decaryi/Brookesia_decaryi.xlsx
+++ b/biology/Zoologie/Brookesia_decaryi/Brookesia_decaryi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Brookesia decaryi est une espèce de sauriens de la famille des Chamaeleonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brookesia decaryi est une espèce de sauriens de la famille des Chamaeleonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de la région de Boeny à Madagascar[1]. Elle se rencontre dans le parc national d'Ankarafantsika
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de la région de Boeny à Madagascar. Elle se rencontre dans le parc national d'Ankarafantsika
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce caméléon nain est de petite taille, diurne, et vit au sol ou sur les branches basses des forêts. Il présente une sorte de double crête le long de la colonne vertébrale, qui va jusque sur la tête.
 </t>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Raymond Decary[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Raymond Decary.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Angel, 1939 "1938" : Lézards, Scincidé et Chamaeleontidé nouveaux de Madagascar, des collections R. Decary. Bulletin du Muséum d'Histoire naturelle, vol. 10, p. 574-577.</t>
         </is>
